--- a/data/trans_camb/P43_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P43_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,71</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,93</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>8,92</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8,1</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 42,29</t>
+          <t>0,0; 14,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 17,16</t>
+          <t>0,0; 8,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 23,04</t>
+          <t>1,32; 18,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,12; 24,63</t>
+          <t>-4,91; 7,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 25,89</t>
+          <t>-6,14; 5,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 15,59</t>
+          <t>0,82; 22,56</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 7,83</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 4,72</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1,99; 15,97</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>406,66%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>86,89%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,6%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>73,61%</t>
+          <t>-5,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>284,16%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>136,13%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>46,04%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>494,61%</t>
         </is>
       </c>
     </row>
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-69,13; 243,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-64,09; 302,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,31; 471,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,44; 253,25</t>
+          <t>-36,51; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3,27; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>4,23</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6,31</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 4,11</t>
+          <t>-6,09; 5,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 4,49</t>
+          <t>-7,21; 3,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 14,25</t>
+          <t>0,1; 24,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 12,5</t>
+          <t>-2,11; 8,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 5,4</t>
+          <t>-3,34; 7,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 5,33</t>
+          <t>-1,38; 9,94</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-1,57; 5,67</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 3,98</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 15,89</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-20,83%</t>
+          <t>-3,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-21,79%</t>
+          <t>-20,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>118,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>62,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,92%</t>
+          <t>74,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>26,81%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>100,07%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-62,41; 58,39</t>
+          <t>-63,48; 140,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,01; 62,59</t>
+          <t>-71,11; 104,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,25; 138,05</t>
+          <t>-10,37; 529,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,05; 122,7</t>
+          <t>-28,53; 252,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,97; 54,01</t>
+          <t>-42,36; 221,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,31; 54,67</t>
+          <t>-20,66; 289,0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-22,57; 124,14</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-39,57; 95,79</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11,51; 302,04</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-1,79</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 4,72</t>
+          <t>-5,69; 5,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 7,03</t>
+          <t>-4,53; 8,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 10,65</t>
+          <t>-1,92; 11,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 8,75</t>
+          <t>-4,41; 8,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 5,73</t>
+          <t>-4,0; 8,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 5,49</t>
+          <t>-7,37; 4,23</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,55; 4,98</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,51; 6,42</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 5,88</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-21,7%</t>
+          <t>-5,61%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,75%</t>
+          <t>28,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>77,55%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>23,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>-20,34%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>12,01%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>25,08%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>16,66%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-60,09; 63,06</t>
+          <t>-66,73; 166,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-50,16; 76,99</t>
+          <t>-52,79; 240,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,34; 85,34</t>
+          <t>-25,61; 319,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,47; 69,71</t>
+          <t>-38,34; 134,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,74; 47,89</t>
+          <t>-36,83; 135,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,6; 48,29</t>
+          <t>-62,9; 71,03</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-37,25; 87,03</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-25,45; 111,88</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-32,43; 101,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 3,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 3,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 8,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 7,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 4,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 4,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-0,28%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,44; 42,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-46,69; 43,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 66,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 57,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 42,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,44; 38,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6,78</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,24; 4,28</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,45; 3,72</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2,18; 15,15</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 6,26</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 5,2</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 6,7</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 4,36</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 3,53</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1,55; 8,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>119,28%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>36,78%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>22,86%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>39,11%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>23,61%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>13,43%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>74,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-43,71; 112,71</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-45,63; 99,86</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>21,98; 353,0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-17,2; 124,21</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-25,29; 106,24</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-12,38; 133,31</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-14,58; 87,43</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-21,34; 71,88</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>17,22; 172,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
